--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE503421-7A51-41E5-9647-B0D53B0FF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DAD411-4335-4FB0-9382-89D7972FDB39}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -232,12 +231,6 @@
     <t>variabble</t>
   </si>
   <si>
-    <t>let const var</t>
-  </si>
-  <si>
-    <t>array, method, like, map()</t>
-  </si>
-  <si>
     <t>destructuring</t>
   </si>
   <si>
@@ -251,12 +244,108 @@
   </si>
   <si>
     <t>giúp viết code dễ đọc dễ hiểu hơn</t>
+  </si>
+  <si>
+    <t>reactjs sử dụng JSX(javascript XML để viết các template hoặc components trong javascript, mục đích kết hợp html và js dễ dàng hơn</t>
+  </si>
+  <si>
+    <t>ưu điểm</t>
+  </si>
+  <si>
+    <t>ReactJS cung cấp một cách để quản lý trạng thái của ứng dụng thông qua "state" và "props"</t>
+  </si>
+  <si>
+    <t>trong 1 cái components có thể nhiều components</t>
+  </si>
+  <si>
+    <t>regular functions</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng var có phạm vi là toàn cục hoặc cục bộ (trong một hàm).</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng var có thể được khai báo lại và cập nhật giá trị trong cùng một phạm vi.</t>
+  </si>
+  <si>
+    <t>Nếu biến được khai báo bởi var ở bên trong một khối lệnh (block), biến đó vẫn có thể truy cập từ bên ngoài khối đó.</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng let có phạm vi là block scope (tức là chỉ có thể truy cập trong cùng một khối lệnh).</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng let không thể được khai báo lại trong cùng một phạm vi, nhưng có thể cập nhật giá trị.</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng const cũng có phạm vi block scope.</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng const không thể được gán lại giá trị sau khi đã được khai báo (immutable).</t>
+  </si>
+  <si>
+    <t>array method</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>foreach</t>
+  </si>
+  <si>
+    <t>…như trong javascript</t>
+  </si>
+  <si>
+    <t>là gán giá trị từ một cấu trúc dữ liệu phức tạp (như một object hoặc mảng) vào các biến riêng lẻ</t>
+  </si>
+  <si>
+    <t>Spread Operator</t>
+  </si>
+  <si>
+    <t>cho phép chúng ta sao chép nhanh chóng tất cả hoặc một phần của mảng hoặc đối tượng hiện có vào một mảng hoặc đối tượng khác.</t>
+  </si>
+  <si>
+    <t>phải export mới import được</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>based import</t>
+  </si>
+  <si>
+    <t>default import</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,9 +382,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,21 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF97572-E0E9-4A4B-9749-2135316496FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>11</v>
       </c>
@@ -631,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -639,212 +731,212 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>55</v>
       </c>
@@ -856,37 +948,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E6F405-1AD5-42A9-90BA-7A891554A706}">
-  <dimension ref="B2:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -894,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>3</v>
       </c>
@@ -902,96 +1000,302 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="M19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6C724-B807-4FD6-AB6C-814F55C8EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -340,13 +332,46 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>React kết xuất HTML sang trang web bằng cách sử dụng hàm có tên createRoot() và phương thức render() của nó.</t>
+  </si>
+  <si>
+    <t>React hỗ trợ các câu lệnh if, nhưng không hỗ trợ bên trong JSX.</t>
+  </si>
+  <si>
+    <t>JSX</t>
+  </si>
+  <si>
+    <t>Viết câu lệnh if bên ngoài mã JSX</t>
+  </si>
+  <si>
+    <t>hoặc sử dụng toán tử 3 ngôi</t>
+  </si>
+  <si>
+    <t>{variable/number}</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>là các đối số được truyền vào component</t>
+  </si>
+  <si>
+    <t>là viết tắt của property</t>
+  </si>
+  <si>
+    <t>events</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +385,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F2149"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,12 +413,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,21 +733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>11</v>
       </c>
@@ -723,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -731,212 +763,212 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>55</v>
       </c>
@@ -948,21 +980,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -973,7 +1005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -984,7 +1016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -992,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
         <v>3</v>
       </c>
@@ -1000,27 +1032,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1052,12 +1084,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1065,7 +1097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1076,7 +1108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1103,67 +1135,67 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="E26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="F27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="F28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="F29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="F31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="F32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="F34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="F35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,43 +1203,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="E37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="E38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="E40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="E41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="E42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1215,13 +1247,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="E44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1229,19 +1261,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="E46" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1249,19 +1281,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="E51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>101</v>
@@ -1270,7 +1302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>101</v>
@@ -1279,7 +1311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1290,12 +1322,91 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6C724-B807-4FD6-AB6C-814F55C8EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -365,12 +364,42 @@
   </si>
   <si>
     <t>events</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={shoot}&gt;Take the Shot!&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Conditional </t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>routes</t>
+  </si>
+  <si>
+    <t>meno</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>sass</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>là sử dụng các câu điều kiện , rẽ nhánh, vòng lặp, toán tử</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,21 +762,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>11</v>
       </c>
@@ -755,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -763,212 +792,212 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>55</v>
       </c>
@@ -980,79 +1009,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="T5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J8" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J9" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1084,12 +1113,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1097,7 +1126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1108,7 +1137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1135,67 +1164,67 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="F27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="F28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="F29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="F31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="F32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="F34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="F35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,43 +1232,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="E37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="E38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="E40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="E41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="E42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1247,13 +1276,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="E44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,19 +1290,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="E46" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1281,19 +1310,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="E51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>101</v>
@@ -1302,7 +1331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>101</v>
@@ -1311,7 +1340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1351,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>104</v>
       </c>
@@ -1338,7 +1367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1383,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
@@ -1370,17 +1399,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
@@ -1388,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1425,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -1404,9 +1433,55 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="MENU" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -394,6 +395,12 @@
   </si>
   <si>
     <t>là sử dụng các câu điều kiện , rẽ nhánh, vòng lặp, toán tử</t>
+  </si>
+  <si>
+    <t>chuyển code html thường sang dạng reactjs</t>
+  </si>
+  <si>
+    <t>https://magic.reactjs.net/htmltojsx.htm</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1017,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="MENU" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="reactjs" sheetId="1" r:id="rId3"/>
+    <sheet name="script" sheetId="5" r:id="rId4"/>
+    <sheet name="js" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="227">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -401,13 +403,319 @@
   </si>
   <si>
     <t>https://magic.reactjs.net/htmltojsx.htm</t>
+  </si>
+  <si>
+    <t> thường được sử dụng kết hợp với phép phá hủy.</t>
+  </si>
+  <si>
+    <t>chia code nhỏ ra các phần riêng biệt</t>
+  </si>
+  <si>
+    <t>có thể xuất hàm hoặc biến</t>
+  </si>
+  <si>
+    <t>Có hai loại xuất: Được đặt tên và Mặc định.</t>
+  </si>
+  <si>
+    <t>ít dùng</t>
+  </si>
+  <si>
+    <t>JSX stands for JavaScript XML.</t>
+  </si>
+  <si>
+    <t>JSX allows us to write HTML in React.</t>
+  </si>
+  <si>
+    <t>là các hàm trả về dưới dạng html</t>
+  </si>
+  <si>
+    <t>có thể tái sử dụng</t>
+  </si>
+  <si>
+    <t>class component thì ít sử dụng</t>
+  </si>
+  <si>
+    <t>funcshion component ưu tiên hơn</t>
+  </si>
+  <si>
+    <t>sử dụng map() để lặp</t>
+  </si>
+  <si>
+    <t>phương thức được ưa chuộng nhất</t>
+  </si>
+  <si>
+    <t>để lấy giá trị và in ra</t>
+  </si>
+  <si>
+    <t>nó cũng tương tự như html thuần thôi</t>
+  </si>
+  <si>
+    <t>thêm router bằng lệnh : npm i -D react-router-dom hoặc npm i -D react-router-dom@latest</t>
+  </si>
+  <si>
+    <t>để tăng hiệu suất bằng cách tránh render lại các coponent ko cần thiết</t>
+  </si>
+  <si>
+    <t>React Hooks giúp cho việc viết code trong React trở nên dễ đọc, dễ bảo trì và tạo ra các component functional mạnh mẽ hơn.</t>
+  </si>
+  <si>
+    <t>có thể sử dụng state, lifecycle, context và nhiều tính năng khác một cách dễ dàng trong các functional components.</t>
+  </si>
+  <si>
+    <t>useState</t>
+  </si>
+  <si>
+    <t>useEffect</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t>useRef</t>
+  </si>
+  <si>
+    <t>useReducer</t>
+  </si>
+  <si>
+    <t>useCallback</t>
+  </si>
+  <si>
+    <t>useMeno</t>
+  </si>
+  <si>
+    <t>customHook</t>
+  </si>
+  <si>
+    <t>chưa thay đổi được tiêu đề của từng trang</t>
+  </si>
+  <si>
+    <t>các loại function trong js</t>
+  </si>
+  <si>
+    <t>1 ứng dụng có thể có nhiều routes</t>
+  </si>
+  <si>
+    <t>các routes có thể lồng vào nhau</t>
+  </si>
+  <si>
+    <t>quy trình để tạo 1 dự án reactjs</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Trong ReactJS, "state" đề cập đến một khái niệm quan trọng để quản lý dữ liệu và trạng thái của một component. State trong ReactJS là một đối tượng chứa dữ liệu cụ thể mà một component sử dụng để render giao diện và theo dõi các thay đổi của nó.</t>
+  </si>
+  <si>
+    <t>Các điểm chính về state trong ReactJS:</t>
+  </si>
+  <si>
+    <t>1. Khởi tạo State:</t>
+  </si>
+  <si>
+    <t>State được khởi tạo trong constructor của component sử dụng this.state = {}.</t>
+  </si>
+  <si>
+    <t>2. Thay Đổi State:</t>
+  </si>
+  <si>
+    <t>Để thay đổi state, bạn sử dụng phương thức this.setState() của component.</t>
+  </si>
+  <si>
+    <t>Không nên trực tiếp gán giá trị cho state bằng this.state.someProperty = someValue vì React không thể theo dõi thay đổi đó.</t>
+  </si>
+  <si>
+    <t>3. Render Dựa trên State:</t>
+  </si>
+  <si>
+    <t>Giao diện render của một component thường phụ thuộc vào state của nó. Khi state thay đổi, component sẽ render lại để hiển thị dữ liệu mới.</t>
+  </si>
+  <si>
+    <t>4. State Là Dữ Liệu Cục Bộ của Component:</t>
+  </si>
+  <si>
+    <t>Mỗi component trong ReactJS có state riêng của nó và không thể truy cập state của component khác trực tiếp.</t>
+  </si>
+  <si>
+    <t>State cung cấp tính đóng gói và bảo mật cho dữ liệu của component.</t>
+  </si>
+  <si>
+    <t>5. Lưu Ý với Asynchronous Updates:</t>
+  </si>
+  <si>
+    <t>Hàm this.setState() trong ReactJS có thể nhận một function làm tham số thay vì object giá trị, giúp tránh việc xảy ra vấn đề với các cập nhật state không đồng bộ.</t>
+  </si>
+  <si>
+    <t>Sử dụng state là một phần quan trọng trong quá trình phát triển ứng dụng ReactJS, vì nó cho phép bạn theo dõi và cập nhật dữ liệu của component một cách dễ dàng và linh hoạt.</t>
+  </si>
+  <si>
+    <t>cần có npm đi kèm với Node.js.</t>
+  </si>
+  <si>
+    <t>lưu ý</t>
+  </si>
+  <si>
+    <t>tạo dự án</t>
+  </si>
+  <si>
+    <t>npx create-react-app my-react-app</t>
+  </si>
+  <si>
+    <t>di chuyển đến thư mục dự án để làm việc</t>
+  </si>
+  <si>
+    <t>cd my-react-app</t>
+  </si>
+  <si>
+    <t>npm start</t>
+  </si>
+  <si>
+    <t>chạy ứng dụng</t>
+  </si>
+  <si>
+    <t>thư viện chạy trên môi trường (nền), ví dụ như laravel chạy trên môi trường php chẳng hạn</t>
+  </si>
+  <si>
+    <t>như laragol, xampp là để chạy môi trường server ảo, quản lí database, ở dưới local(môi trường máy tính)</t>
+  </si>
+  <si>
+    <t>như ssh là để chạy môi trường sever thật, quản lí database thật trên mạng</t>
+  </si>
+  <si>
+    <t>khi dưới local hoàn thành thì đẩy code lên server, xong</t>
+  </si>
+  <si>
+    <t>câu lệnh npm run dev là nó chạy cái lệnh dài loằng ngoằng trong config</t>
+  </si>
+  <si>
+    <t>Webpack </t>
+  </si>
+  <si>
+    <t>là một công cụ đóng gói (bundling tool) được sử dụng rộng rãi trong phát triển web để xử lý và tối ưu hóa các tệp tĩnh, như JavaScript, CSS, hình ảnh, font chữ, và các tệp khác.</t>
+  </si>
+  <si>
+    <t>Webpack giúp tổ chức và quản lý các module, những phần mã nguồn của ứng dụng, và biến chúng thành các bundle tối ưu để sử dụng trong quá trình phát triển và triển khai ứng dụng web.</t>
+  </si>
+  <si>
+    <t>npm list react</t>
+  </si>
+  <si>
+    <t>ktra version react</t>
+  </si>
+  <si>
+    <t>Hook cho phép các component function có quyền truy cập vào state và các tính năng React khác</t>
+  </si>
+  <si>
+    <t>Hook cho phép chúng ta "hook" vào các tính năng của React như state và phương thức vòng đời.</t>
+  </si>
+  <si>
+    <t>Quy tắc hook</t>
+  </si>
+  <si>
+    <t>Hook chỉ có thể được gọi bên trong các thành phần hàm React.</t>
+  </si>
+  <si>
+    <t>Hook chỉ có thể được gọi ở cấp cao nhất của một thành phần.</t>
+  </si>
+  <si>
+    <t>Hook không thể có điều kiện</t>
+  </si>
+  <si>
+    <t>React useState Hook cho phép chúng ta theo dõi trạng thái trong một function component</t>
+  </si>
+  <si>
+    <t>Trạng thái thường đề cập đến dữ liệu hoặc thuộc tính cần được theo dõi trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>mục đích là để ghì đè, trong biến hoặc 1 object</t>
+  </si>
+  <si>
+    <t>là một hàm hook dùng để thực thi side effects trong components functional.</t>
+  </si>
+  <si>
+    <t>Side effects ở đây đề cập đến các hành động khác ngoài việc render giao diện</t>
+  </si>
+  <si>
+    <t>chẳng hạn như gọi API, thay đổi DOM trực tiếp, đăng ký và hủy đăng ký event listeners, và nhiều hành động khác.</t>
+  </si>
+  <si>
+    <t>được sử dụng để truy cập giá trị của một Context mà đã được tạo bởi React.createContext(). </t>
+  </si>
+  <si>
+    <t>Context cho phép bạn truyền dữ liệu giữa các component trong cây component mà không cần truyền props qua nhiều cấp đi xuống.</t>
+  </si>
+  <si>
+    <t>cho phép bạn duy trì các giá trị giữa các lần hiển thị.</t>
+  </si>
+  <si>
+    <t>Nó có thể được sử dụng để lưu trữ một giá trị có thể thay đổi mà không gây ra hiện tượng hiển thị lại khi cập nhật.</t>
+  </si>
+  <si>
+    <t>Nó có thể được sử dụng để truy cập trực tiếp vào phần tử DOM.</t>
+  </si>
+  <si>
+    <t>Không gây ra kết xuất lại</t>
+  </si>
+  <si>
+    <t>Truy cập các phần tử DOM</t>
+  </si>
+  <si>
+    <t>Theo dõi các thay đổi trạng thái</t>
+  </si>
+  <si>
+    <t>tương tự như useState Hook</t>
+  </si>
+  <si>
+    <t>Nó cho phép logic trạng thái tùy chỉnh.</t>
+  </si>
+  <si>
+    <t>Nếu bạn thấy mình đang theo dõi nhiều phần trạng thái dựa trên logic phức tạp, useReducer có thể hữu ích.</t>
+  </si>
+  <si>
+    <t>trả về hàm gọi lại được ghi nhớ.</t>
+  </si>
+  <si>
+    <t>Hãy coi việc ghi nhớ như việc lưu vào bộ nhớ đệm một giá trị để không cần phải tính toán lại.</t>
+  </si>
+  <si>
+    <t>tách biệt các chức năng sử dụng nhiều tài nguyên để chúng không tự động chạy trên mỗi lần kết xuất.</t>
+  </si>
+  <si>
+    <t>Hook useCallback chỉ chạy khi một trong các phần phụ thuộc của nó cập nhật.</t>
+  </si>
+  <si>
+    <t>Điều này có thể cải thiện hiệu suất.</t>
+  </si>
+  <si>
+    <t>Các hook useCallback và useMemo cũng tương tự nhau.</t>
+  </si>
+  <si>
+    <t>useMemo trả về giá trị được ghi nhớ</t>
+  </si>
+  <si>
+    <t>useCallback trả về hàm được ghi nhớ</t>
+  </si>
+  <si>
+    <t>trả về một giá trị được ghi nhớ</t>
+  </si>
+  <si>
+    <t>chỉ chạy khi một trong các phần phụ thuộc của nó cập nhật.</t>
+  </si>
+  <si>
+    <t>Điều này có thể cải thiện hiệu suất</t>
+  </si>
+  <si>
+    <t>Hook là chức năng có thể tái sử dụng.</t>
+  </si>
+  <si>
+    <t>Khi bạn có logic thành phần cần được sử dụng bởi nhiều thành phần, chúng ta có thể trích xuất logic đó vào một Hook tùy chỉnh.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +736,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,18 +783,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,6 +817,168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="17173575"/>
+          <a:ext cx="6867525" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561371</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5000625"/>
+          <a:ext cx="4828571" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1152525"/>
+          <a:ext cx="4819650" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="8839200"/>
+          <a:ext cx="4867275" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1017,15 +1525,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1033,22 +1541,55 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T86"/>
+  <dimension ref="B2:T184"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1600,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1070,7 +1611,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1081,7 +1622,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1089,7 +1630,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1097,16 +1638,25 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,6 +1728,9 @@
       </c>
       <c r="D23" t="s">
         <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1272,6 +1825,9 @@
       <c r="E37" t="s">
         <v>86</v>
       </c>
+      <c r="F37" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
@@ -1333,6 +1889,9 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
@@ -1343,6 +1902,9 @@
       </c>
       <c r="D49" t="s">
         <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1353,174 +1915,800 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="E51" t="s">
-        <v>97</v>
+      <c r="E51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="E54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
         <v>67</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D79" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+      <c r="D89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+      <c r="D90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="D108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="D118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="D119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="D121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+      <c r="D122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="D123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="D126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+      <c r="D128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+      <c r="D129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="D130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="D134" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
         <v>121</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
+      <c r="D142" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
+      <c r="D143" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="8"/>
+      <c r="D144" s="5"/>
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="8"/>
+      <c r="D145" s="5"/>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="8"/>
+      <c r="D146" s="5"/>
+      <c r="E146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C148" s="6"/>
+      <c r="D148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="6"/>
+      <c r="D149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="6"/>
+      <c r="D150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="6"/>
+      <c r="D152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="6"/>
+      <c r="D153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="6"/>
+      <c r="D154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="6"/>
+      <c r="D156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="6"/>
+      <c r="D157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="6"/>
+      <c r="D159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C160" s="6"/>
+      <c r="D160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C161" s="6"/>
+      <c r="D161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C162" s="6"/>
+      <c r="E162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C163" s="6"/>
+      <c r="E163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C164" s="6"/>
+      <c r="E164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C165" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C166" s="6"/>
+      <c r="D166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C167" s="6"/>
+      <c r="D167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C168" s="6"/>
+      <c r="D168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C169" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C170" s="6"/>
+      <c r="D170" t="s">
+        <v>214</v>
+      </c>
+      <c r="H170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C171" s="6"/>
+      <c r="D171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C172" s="6"/>
+      <c r="D172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C173" s="6"/>
+      <c r="D173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C174" s="6"/>
+      <c r="D174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C175" s="6"/>
+      <c r="D175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C176" s="6"/>
+      <c r="D176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="6"/>
+      <c r="D178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="6"/>
+      <c r="D179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="6"/>
+      <c r="D180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="6"/>
+      <c r="D181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="247">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -198,9 +198,6 @@
     <t>quản lí bài viết CRUD</t>
   </si>
   <si>
-    <t>tất cả những gì tạo nó chạy vào id</t>
-  </si>
-  <si>
     <t>trong reactjs, nodejs tạo môi trường để chạy mã javascript và tương tác với các thành phần khác của ứng dụng, kiểu như hỗ trợ phát triển và chạy ứng ụng web</t>
   </si>
   <si>
@@ -709,13 +706,76 @@
   </si>
   <si>
     <t>Khi bạn có logic thành phần cần được sử dụng bởi nhiều thành phần, chúng ta có thể trích xuất logic đó vào một Hook tùy chỉnh.</t>
+  </si>
+  <si>
+    <t>tất cả những gì tạo nó chạy vào id Root</t>
+  </si>
+  <si>
+    <t>ko sử dụng được constructor</t>
+  </si>
+  <si>
+    <t>modules ở đây là cái file có import, export</t>
+  </si>
+  <si>
+    <t>chỉ lấy những thứ cần thiết trong đó</t>
+  </si>
+  <si>
+    <t>Khái niệm</t>
+  </si>
+  <si>
+    <t>React là một thư viện JavaScript để xây dựng giao diện người dùng.</t>
+  </si>
+  <si>
+    <t>React được sử dụng để xây dựng các single-page applications</t>
+  </si>
+  <si>
+    <t>React cho phép chúng ta tạo các components UI có thể tái sử dụng.</t>
+  </si>
+  <si>
+    <t>single-page applications.(SPAs) và Multi-page applications (MPAs)</t>
+  </si>
+  <si>
+    <t>React-Dom</t>
+  </si>
+  <si>
+    <t>để nối thư viện react với dom</t>
+  </si>
+  <si>
+    <t>để render code trong react ra trình duyệt</t>
+  </si>
+  <si>
+    <t>react-Native</t>
+  </si>
+  <si>
+    <t>để render ra trên môi trường điện thoại như iOS, Android</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>link chuyển đổi JSX ES6 sang ES5</t>
+  </si>
+  <si>
+    <t>sum(a,b)</t>
+  </si>
+  <si>
+    <t>a, b là tham số</t>
+  </si>
+  <si>
+    <t>khi truyền vào</t>
+  </si>
+  <si>
+    <t>sum(7,8)</t>
+  </si>
+  <si>
+    <t>7 8 là đối số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +825,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -787,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -801,6 +868,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,14 +895,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="4381500"/>
+          <a:ext cx="6772275" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -862,7 +976,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1525,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,42 +1652,103 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1581,15 +1756,16 @@
     <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T184"/>
+  <dimension ref="B2:T182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1618,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1662,16 +1838,13 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>71</v>
+      <c r="I12" s="10" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -1679,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -1687,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1695,42 +1868,39 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>129</v>
+      <c r="M22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1738,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1749,128 +1919,131 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
+      <c r="E26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="F27" t="s">
-        <v>78</v>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="F28" t="s">
-        <v>79</v>
+      <c r="E28" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
+      <c r="F30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
-      <c r="F32" t="s">
-        <v>82</v>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
-      <c r="E33" s="1" t="s">
-        <v>77</v>
+      <c r="F33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
-      <c r="F35" t="s">
-        <v>84</v>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
+      <c r="C36" s="2"/>
+      <c r="F36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="E38" t="s">
-        <v>87</v>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
+      <c r="C43" s="2"/>
+      <c r="E43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
@@ -1878,294 +2051,322 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>66</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="E51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="E52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>128</v>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>101</v>
+      <c r="E54" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+      <c r="R76" t="s">
+        <v>242</v>
+      </c>
+      <c r="S76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>110</v>
+      </c>
+      <c r="R78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>245</v>
+      </c>
+      <c r="S79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="4" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="4" t="s">
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="4" t="s">
+      <c r="D89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="D91" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-      <c r="D89" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-      <c r="D90" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
+      <c r="D92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
+      <c r="D93" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
@@ -2185,13 +2386,13 @@
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,103 +2407,106 @@
     <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D108" t="s">
-        <v>141</v>
-      </c>
+    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>120</v>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="D114" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="D115" t="s">
-        <v>159</v>
+      <c r="B115" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-      <c r="D116" t="s">
-        <v>160</v>
+      <c r="B116" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
-      <c r="D119" t="s">
-        <v>162</v>
+      <c r="D119" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
+      <c r="D120" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
-      <c r="D121" t="s">
-        <v>163</v>
+      <c r="D121" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
+      <c r="D124" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
-      <c r="D126" t="s">
-        <v>167</v>
+      <c r="D126" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
+      <c r="D127" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
@@ -2312,215 +2516,217 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="D129" t="s">
+      <c r="D129" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
       <c r="D130" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
+      <c r="D131" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
       <c r="D132" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
-      <c r="D134" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>142</v>
+      <c r="B135" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
+      <c r="D137" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>188</v>
+      <c r="B139" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
+      <c r="D140" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>191</v>
+      <c r="B141" s="8"/>
+      <c r="D141" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
-      <c r="D142" s="5" t="s">
-        <v>192</v>
+      <c r="D142" s="5"/>
+      <c r="E142" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
-      <c r="D143" s="5" t="s">
-        <v>193</v>
+      <c r="D143" s="5"/>
+      <c r="E143" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="D144" s="5"/>
       <c r="E144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="8"/>
-      <c r="D145" s="5"/>
-      <c r="E145" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="8"/>
-      <c r="D146" s="5"/>
-      <c r="E146" t="s">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146" s="6"/>
+      <c r="D146" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="6"/>
+      <c r="D147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="6"/>
-      <c r="D149" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="6"/>
+      <c r="D151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C153" s="6"/>
-      <c r="D153" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="6" t="s">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="6"/>
+      <c r="D155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="6"/>
-      <c r="D156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="6"/>
+      <c r="D158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
-      <c r="D160" t="s">
-        <v>206</v>
+      <c r="E160" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
-      <c r="D161" t="s">
-        <v>207</v>
+      <c r="E161" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="E162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="6"/>
-      <c r="E163" t="s">
-        <v>209</v>
+      <c r="C163" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
-      <c r="E164" t="s">
+      <c r="D164" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C165" s="6" t="s">
-        <v>148</v>
+      <c r="C165" s="6"/>
+      <c r="D165" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C167" s="6"/>
-      <c r="D167" t="s">
-        <v>212</v>
+      <c r="C167" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
@@ -2528,49 +2734,49 @@
       <c r="D168" t="s">
         <v>213</v>
       </c>
+      <c r="H168" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C169" s="6" t="s">
-        <v>149</v>
+      <c r="C169" s="6"/>
+      <c r="D169" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" t="s">
-        <v>214</v>
-      </c>
-      <c r="H170" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C175" s="6"/>
-      <c r="D175" t="s">
-        <v>220</v>
+      <c r="C175" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
@@ -2580,8 +2786,9 @@
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="6" t="s">
-        <v>150</v>
+      <c r="C177" s="6"/>
+      <c r="D177" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">
@@ -2593,34 +2800,22 @@
     <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="6"/>
-      <c r="D180" t="s">
-        <v>223</v>
+      <c r="C180" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="6"/>
       <c r="D181" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D183" t="s">
+      <c r="D182" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D184" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2642,49 +2837,49 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
         <v>179</v>
-      </c>
-      <c r="I5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" t="s">
         <v>189</v>
-      </c>
-      <c r="I6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2899,7 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T92" sqref="T92"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -276,9 +276,6 @@
     <t>Biến được khai báo bằng let không thể được khai báo lại trong cùng một phạm vi, nhưng có thể cập nhật giá trị.</t>
   </si>
   <si>
-    <t>Biến được khai báo bằng const cũng có phạm vi block scope.</t>
-  </si>
-  <si>
     <t>Biến được khai báo bằng const không thể được gán lại giá trị sau khi đã được khai báo (immutable).</t>
   </si>
   <si>
@@ -769,6 +766,9 @@
   </si>
   <si>
     <t>7 8 là đối số</t>
+  </si>
+  <si>
+    <t>Biến được khai báo bằng const cũng có phạm vi block scope. {}</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,42 +1652,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -1695,60 +1695,60 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N151" sqref="N151"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1782,7 @@
       <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1793,8 +1793,8 @@
       <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T5" t="s">
-        <v>94</v>
+      <c r="T5" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1804,6 +1804,9 @@
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="T6" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I7" s="4" t="s">
@@ -1837,11 +1840,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I12" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -1860,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1911,7 +1909,7 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1928,7 +1926,7 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1990,13 +1988,13 @@
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
@@ -2004,46 +2002,46 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
@@ -2057,13 +2055,13 @@
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
@@ -2071,19 +2069,19 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -2097,55 +2095,55 @@
         <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="E54" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="E55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -2156,7 +2154,7 @@
         <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -2169,22 +2167,22 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
@@ -2200,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
@@ -2208,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
@@ -2216,32 +2214,32 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
@@ -2251,13 +2249,13 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R76" t="s">
+        <v>241</v>
+      </c>
+      <c r="S76" t="s">
         <v>242</v>
-      </c>
-      <c r="S76" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
@@ -2265,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
@@ -2273,39 +2271,39 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R79" t="s">
+        <v>244</v>
+      </c>
+      <c r="S79" t="s">
         <v>245</v>
-      </c>
-      <c r="S79" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
         <v>111</v>
-      </c>
-      <c r="D80" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -2313,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -2321,12 +2319,12 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -2334,12 +2332,12 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -2347,25 +2345,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -2421,401 +2419,401 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="D118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="D119" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="D121" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="D124" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="D126" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="D127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="D128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="D129" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="D140" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="D141" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="D142" s="5"/>
       <c r="E142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="D143" s="5"/>
       <c r="E143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="D144" s="5"/>
       <c r="E144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="E160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="E161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="E162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" t="s">
+        <v>212</v>
+      </c>
+      <c r="H168" t="s">
         <v>213</v>
-      </c>
-      <c r="H168" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2837,49 +2835,49 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
         <v>178</v>
-      </c>
-      <c r="I5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" t="s">
         <v>188</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2899,7 +2897,7 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="250">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -769,13 +769,34 @@
   </si>
   <si>
     <t>Biến được khai báo bằng const cũng có phạm vi block scope. {}</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <r>
+      <t>Mounting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là quá trình một component được tạo ra và đưa vào DOM lần đầu tiên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Đây là bước đầu tiên trong vòng đời của một component khi React hiển thị component đó lên giao diện người dùng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +853,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -872,6 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1394,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T182"/>
+  <dimension ref="B2:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N189" sqref="N189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,6 +2844,21 @@
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2873,7 @@
   <dimension ref="C2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="MENU" sheetId="3" r:id="rId2"/>
+    <sheet name="MENU" sheetId="3" r:id="rId1"/>
+    <sheet name="1 dự án mới" sheetId="6" r:id="rId2"/>
     <sheet name="reactjs" sheetId="1" r:id="rId3"/>
     <sheet name="script" sheetId="5" r:id="rId4"/>
     <sheet name="js" sheetId="4" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -60,144 +60,6 @@
     <t>npm show react version : kiểm tra phiên bản reactjs</t>
   </si>
   <si>
-    <t>chủ nhật làm gì</t>
-  </si>
-  <si>
-    <t>thêm react.xlsx file</t>
-  </si>
-  <si>
-    <t>cần push lên git</t>
-  </si>
-  <si>
-    <t>tạo sheet total trong menu.xlsx file</t>
-  </si>
-  <si>
-    <t>skill from fgc</t>
-  </si>
-  <si>
-    <t>worldpress</t>
-  </si>
-  <si>
-    <t>biết về cách tạo worldpress</t>
-  </si>
-  <si>
-    <t>cách hoạt động của nó</t>
-  </si>
-  <si>
-    <t>cách viết và sử dụng, cấu hình plugin</t>
-  </si>
-  <si>
-    <t>css, scss</t>
-  </si>
-  <si>
-    <t>các trình builder : elementor, WPBakery Page Builder</t>
-  </si>
-  <si>
-    <t>sử dụng contact form 7</t>
-  </si>
-  <si>
-    <t>rating star</t>
-  </si>
-  <si>
-    <t>list comment</t>
-  </si>
-  <si>
-    <t>hiệu suất trang web</t>
-  </si>
-  <si>
-    <t>tích hợp slider swipper</t>
-  </si>
-  <si>
-    <t>danh sách câu hỏi select option</t>
-  </si>
-  <si>
-    <t>trang giả</t>
-  </si>
-  <si>
-    <t>phpadmin</t>
-  </si>
-  <si>
-    <t>shopify</t>
-  </si>
-  <si>
-    <t>cách tạo theme</t>
-  </si>
-  <si>
-    <t>cách code liquired</t>
-  </si>
-  <si>
-    <t>tính năng chat online</t>
-  </si>
-  <si>
-    <t>giỏ hàng, thanh toán paypal, payment</t>
-  </si>
-  <si>
-    <t>các tools</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>vs code</t>
-  </si>
-  <si>
-    <t>netbean</t>
-  </si>
-  <si>
-    <t>php storm</t>
-  </si>
-  <si>
-    <t>figma</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>web server</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>php</t>
-  </si>
-  <si>
-    <t>javascrip</t>
-  </si>
-  <si>
-    <t>javascrip jquery</t>
-  </si>
-  <si>
-    <t>bootstrap</t>
-  </si>
-  <si>
-    <t>nodejs</t>
-  </si>
-  <si>
-    <t>jekyll</t>
-  </si>
-  <si>
-    <t>liquired</t>
-  </si>
-  <si>
-    <t>ruby</t>
-  </si>
-  <si>
-    <t>laravel</t>
-  </si>
-  <si>
-    <t>mô hình mvc</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>authen, author</t>
-  </si>
-  <si>
-    <t>quản lí bài viết CRUD</t>
-  </si>
-  <si>
     <t>trong reactjs, nodejs tạo môi trường để chạy mã javascript và tương tác với các thành phần khác của ứng dụng, kiểu như hỗ trợ phát triển và chạy ứng ụng web</t>
   </si>
   <si>
@@ -379,12 +241,6 @@
   </si>
   <si>
     <t>meno</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>sass</t>
   </si>
   <si>
     <t>hook</t>
@@ -790,6 +646,33 @@
   </si>
   <si>
     <t>Đây là bước đầu tiên trong vòng đời của một component khi React hiển thị component đó lên giao diện người dùng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   npx create-react-app ten-du-an-cua-ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   cd ten-du-an-cua-ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   npm start</t>
+  </si>
+  <si>
+    <t>npm install sass</t>
+  </si>
+  <si>
+    <t>cài đặt scss</t>
+  </si>
+  <si>
+    <t>npm install react-router-dom</t>
+  </si>
+  <si>
+    <t>cài đặt routes để link các page</t>
+  </si>
+  <si>
+    <t>Router, Routes, Route</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -1422,257 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,42 +1318,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -1725,60 +1361,60 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1790,12 +1426,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T187"/>
+  <dimension ref="B2:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N189" sqref="N189"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1824,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -1835,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -1872,7 +1585,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -1888,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -1896,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -1904,31 +1617,31 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -1936,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -1947,16 +1660,16 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -1964,67 +1677,67 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="E35" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
@@ -2032,46 +1745,46 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
@@ -2079,19 +1792,19 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
@@ -2099,19 +1812,19 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -2122,58 +1835,58 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="E54" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="E55" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -2181,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -2192,27 +1905,27 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -2220,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
@@ -2228,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
@@ -2236,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
@@ -2244,48 +1957,48 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="R76" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="S76" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
@@ -2293,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
@@ -2301,39 +2014,39 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="R78" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R79" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="S79" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -2341,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -2349,12 +2062,12 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -2362,12 +2075,12 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -2375,25 +2088,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -2449,416 +2162,406 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="D114" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>118</v>
+      <c r="B115" s="1"/>
+      <c r="D115" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>155</v>
+      <c r="B116" s="1"/>
+      <c r="D116" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
-      <c r="D118" t="s">
-        <v>157</v>
+      <c r="D118" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
-      <c r="D119" s="9" t="s">
-        <v>158</v>
+      <c r="D119" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="D121" s="9" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
-      <c r="D123" t="s">
-        <v>162</v>
+      <c r="D123" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
-      <c r="D124" s="9" t="s">
-        <v>163</v>
+      <c r="D124" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="D126" s="9" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="1"/>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
       <c r="D128" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="D129" s="9" t="s">
-        <v>168</v>
+      <c r="D129" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
-      <c r="D132" t="s">
-        <v>141</v>
+      <c r="B132" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
-        <v>184</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>185</v>
+      <c r="B136" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>186</v>
+      <c r="B137" s="8"/>
+      <c r="D137" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="8"/>
+      <c r="D138" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>189</v>
+      <c r="B139" s="8"/>
+      <c r="D139" s="5"/>
+      <c r="E139" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
-      <c r="D140" s="5" t="s">
-        <v>190</v>
+      <c r="D140" s="5"/>
+      <c r="E140" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
-      <c r="D141" s="5" t="s">
-        <v>191</v>
+      <c r="D141" s="5"/>
+      <c r="E141" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="D142" s="5"/>
-      <c r="E142" t="s">
-        <v>192</v>
+      <c r="C142" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="8"/>
-      <c r="D143" s="5"/>
-      <c r="E143" t="s">
-        <v>193</v>
+      <c r="C143" s="6"/>
+      <c r="D143" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="8"/>
-      <c r="D144" s="5"/>
-      <c r="E144" t="s">
-        <v>194</v>
+      <c r="C144" s="6"/>
+      <c r="D144" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="6" t="s">
-        <v>142</v>
+      <c r="C145" s="6"/>
+      <c r="D145" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="6"/>
-      <c r="D146" t="s">
-        <v>195</v>
+      <c r="C146" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="6" t="s">
-        <v>143</v>
+      <c r="C149" s="6"/>
+      <c r="D149" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C150" s="6"/>
-      <c r="D150" t="s">
-        <v>198</v>
+      <c r="C150" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" s="6" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="6" t="s">
-        <v>145</v>
+      <c r="C156" s="6"/>
+      <c r="D156" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
-      <c r="D157" t="s">
-        <v>203</v>
+      <c r="E157" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
-      <c r="D158" t="s">
-        <v>204</v>
+      <c r="E158" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
-      <c r="D159" t="s">
-        <v>205</v>
+      <c r="E159" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="6"/>
-      <c r="E160" t="s">
-        <v>206</v>
+      <c r="C160" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
-      <c r="E161" t="s">
-        <v>207</v>
+      <c r="D161" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
-      <c r="E162" t="s">
-        <v>208</v>
+      <c r="D162" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="6" t="s">
-        <v>146</v>
+      <c r="C163" s="6"/>
+      <c r="D163" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C164" s="6"/>
-      <c r="D164" t="s">
-        <v>209</v>
+      <c r="C164" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" t="s">
-        <v>210</v>
+        <v>164</v>
+      </c>
+      <c r="H165" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C167" s="6" t="s">
-        <v>147</v>
+      <c r="C167" s="6"/>
+      <c r="D167" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" t="s">
-        <v>212</v>
-      </c>
-      <c r="H168" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C172" s="6"/>
-      <c r="D172" t="s">
-        <v>217</v>
+      <c r="C172" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C175" s="6" t="s">
-        <v>148</v>
+      <c r="C175" s="6"/>
+      <c r="D175" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="6"/>
-      <c r="D177" t="s">
-        <v>213</v>
+      <c r="C177" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="6"/>
       <c r="D178" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="6"/>
       <c r="D179" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D181" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D187" t="s">
-        <v>249</v>
+      <c r="C182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2880,49 +2583,49 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +2645,7 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/reactjs.xlsx
+++ b/reactjs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="js" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
   <si>
     <t>react là 1 thư viện javascript</t>
   </si>
@@ -673,6 +674,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>State: dữ liệu bên trong component, có thể thay đổi.</t>
+  </si>
+  <si>
+    <t>Props: dữ liệu truyền từ cha xuống con.</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,23 +1435,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:K15"/>
+  <dimension ref="E7:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f>R7*Q7</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f>R8*Q8</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f>R9*Q9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>2</v>
       </c>
@@ -1452,7 +1493,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>3</v>
       </c>
@@ -1460,7 +1501,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>4</v>
       </c>
@@ -1471,7 +1512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>5</v>
       </c>
@@ -1482,7 +1523,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1490,7 +1531,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1505,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T184"/>
+  <dimension ref="B2:T189"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M183" sqref="M183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,34 +2575,47 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D183" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2637,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
